--- a/番剧数据-原始数据【美国动画-2021-2023】.xlsx
+++ b/番剧数据-原始数据【美国动画-2021-2023】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,14 +341,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,133 +836,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,8 +970,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1298,7 +1291,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A35"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1377,7 +1370,9 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>2023</v>
+      </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1414,7 +1409,9 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>2023</v>
+      </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1451,7 +1448,9 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>2023</v>
+      </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1488,7 +1487,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>2023</v>
+      </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1525,7 +1526,9 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>2023</v>
+      </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1562,7 +1565,9 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1599,7 +1604,9 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1675,7 +1682,9 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1712,7 +1721,9 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1749,7 +1760,9 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -1786,7 +1799,9 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>2022</v>
+      </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -1823,7 +1838,9 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>2022</v>
+      </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
@@ -1860,7 +1877,9 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3">
+        <v>2022</v>
+      </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
@@ -1897,7 +1916,9 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>2022</v>
+      </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
@@ -1934,7 +1955,9 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3">
+        <v>2022</v>
+      </c>
       <c r="B18" s="2">
         <v>8</v>
       </c>
@@ -1971,7 +1994,9 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>2022</v>
+      </c>
       <c r="B19" s="2">
         <v>9</v>
       </c>
@@ -2008,7 +2033,9 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>2022</v>
+      </c>
       <c r="B20" s="2">
         <v>10</v>
       </c>
@@ -2045,7 +2072,9 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>2022</v>
+      </c>
       <c r="B21" s="2">
         <v>11</v>
       </c>
@@ -2082,7 +2111,9 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>2022</v>
+      </c>
       <c r="B22" s="2">
         <v>12</v>
       </c>
@@ -2119,7 +2150,9 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>2022</v>
+      </c>
       <c r="B23" s="2">
         <v>13</v>
       </c>
@@ -2195,7 +2228,9 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>2021</v>
+      </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
@@ -2232,7 +2267,9 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>2021</v>
+      </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
@@ -2269,7 +2306,9 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>2021</v>
+      </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
@@ -2306,7 +2345,9 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>2021</v>
+      </c>
       <c r="B28" s="2">
         <v>4</v>
       </c>
@@ -2343,7 +2384,9 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>2021</v>
+      </c>
       <c r="B29" s="2">
         <v>5</v>
       </c>
@@ -2380,7 +2423,9 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3">
+        <v>2021</v>
+      </c>
       <c r="B30" s="2">
         <v>6</v>
       </c>
@@ -2417,7 +2462,9 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>2021</v>
+      </c>
       <c r="B31" s="2">
         <v>7</v>
       </c>
@@ -2454,7 +2501,9 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>2021</v>
+      </c>
       <c r="B32" s="2">
         <v>8</v>
       </c>
@@ -2491,7 +2540,9 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>2021</v>
+      </c>
       <c r="B33" s="2">
         <v>9</v>
       </c>
@@ -2528,7 +2579,9 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3">
+        <v>2021</v>
+      </c>
       <c r="B34" s="2">
         <v>10</v>
       </c>
@@ -2565,7 +2618,9 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>2021</v>
+      </c>
       <c r="B35" s="2">
         <v>11</v>
       </c>
@@ -2634,11 +2689,6 @@
       <c r="O37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A23"/>
-    <mergeCell ref="A24:A35"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
